--- a/designDB.xlsx
+++ b/designDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pichau\Desktop\Repositories\clone-facebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B95C5B90-DD93-4E6C-8C6C-BA47D163CC07}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E4C455-B11F-4C4C-AD37-C4783209B893}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5040" yWindow="2475" windowWidth="21585" windowHeight="11385" xr2:uid="{72C5B306-3F7E-41E0-9073-C8F0845BCA09}"/>
   </bookViews>
@@ -60,9 +60,6 @@
     <t>location</t>
   </si>
   <si>
-    <t>workPlace</t>
-  </si>
-  <si>
     <t>string</t>
   </si>
   <si>
@@ -82,6 +79,9 @@
   </si>
   <si>
     <t>text</t>
+  </si>
+  <si>
+    <t>work_place</t>
   </si>
 </sst>
 </file>
@@ -205,18 +205,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -536,7 +536,7 @@
   <dimension ref="A2:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,91 +547,91 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="E2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="6"/>
+      <c r="C2" s="9"/>
+      <c r="E2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
+      <c r="A3" s="5"/>
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>11</v>
+      <c r="F3" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
+      <c r="A4" s="5"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
+      <c r="A5" s="5"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
+      <c r="A6" s="5"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
+      <c r="A7" s="5"/>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
+      <c r="A8" s="5"/>
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -639,7 +639,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -647,15 +647,15 @@
         <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/designDB.xlsx
+++ b/designDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pichau\Desktop\Repositories\clone-facebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E4C455-B11F-4C4C-AD37-C4783209B893}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F58431-AF2B-4554-AA84-1F89E68491F7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5040" yWindow="2475" windowWidth="21585" windowHeight="11385" xr2:uid="{72C5B306-3F7E-41E0-9073-C8F0845BCA09}"/>
+    <workbookView xWindow="5250" yWindow="1875" windowWidth="21585" windowHeight="11385" xr2:uid="{72C5B306-3F7E-41E0-9073-C8F0845BCA09}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
   <si>
     <t>id</t>
   </si>
@@ -82,6 +82,12 @@
   </si>
   <si>
     <t>work_place</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>user_id</t>
   </si>
 </sst>
 </file>
@@ -533,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1567B957-78F0-48A8-B6B2-4B077C65C8A2}">
-  <dimension ref="A2:F11"/>
+  <dimension ref="A2:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -658,10 +664,25 @@
         <v>9</v>
       </c>
     </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="9"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B18:C18"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/designDB.xlsx
+++ b/designDB.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
   <si>
     <t xml:space="preserve">users</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t xml:space="preserve">password_hash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date</t>
   </si>
   <si>
     <t xml:space="preserve">bio</t>
@@ -211,11 +214,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -248,16 +255,20 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -354,13 +365,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:G22"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K26" activeCellId="0" sqref="K26"/>
+      <selection pane="topLeft" activeCell="I21" activeCellId="0" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.14"/>
@@ -368,173 +379,344 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.78"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="1" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="E2" s="1" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3" t="s">
+      <c r="F2" s="2"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="D3" s="1"/>
+      <c r="E3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2"/>
-      <c r="B4" s="7" t="s">
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3"/>
+      <c r="B4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="C4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2"/>
-      <c r="B5" s="7" t="s">
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3"/>
+      <c r="B5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="C5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2"/>
-      <c r="B6" s="7" t="s">
+      <c r="F5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3"/>
+      <c r="B6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="5" t="s">
+      <c r="C6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2"/>
-      <c r="B7" s="7" t="s">
+      <c r="F6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3"/>
+      <c r="B7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2"/>
-      <c r="B8" s="7" t="s">
+      <c r="C7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="7" t="s">
+      <c r="F7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3"/>
+      <c r="B8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="7" t="s">
+      <c r="C8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1"/>
+      <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="7" t="s">
+      <c r="C9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1"/>
+      <c r="B10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>5</v>
-      </c>
+      <c r="C10" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1"/>
+      <c r="B11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="E18" s="9" t="s">
+      <c r="A18" s="1"/>
+      <c r="B18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="4" t="s">
+      <c r="A19" s="1"/>
+      <c r="B19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19" s="10" t="s">
+      <c r="D19" s="1"/>
+      <c r="E19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G19" s="10"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="12" t="s">
+      <c r="A20" s="1"/>
+      <c r="B20" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="13" t="s">
+      <c r="D20" s="1"/>
+      <c r="E20" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G20" s="13"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E21" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="10" t="s">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="F21" s="13" t="s">
         <v>23</v>
       </c>
+      <c r="G21" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E22" s="14"/>
-      <c r="F22" s="15"/>
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="7">
